--- a/output/fit_clients/fit_round_396.xlsx
+++ b/output/fit_clients/fit_round_396.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1704324751.565942</v>
+        <v>2074358670.219751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113209786832471</v>
+        <v>0.08169965955435354</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03622335114147978</v>
+        <v>0.03679638984646739</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>852162331.6619747</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1953014779.874585</v>
+        <v>2309069483.284132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.180255090563804</v>
+        <v>0.1113147969999006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04155548304399904</v>
+        <v>0.04425668297067033</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>976507422.7390928</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4175307323.888696</v>
+        <v>3236631393.350114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1585525233199624</v>
+        <v>0.1261667605471516</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0358999771376969</v>
+        <v>0.03066714655388138</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>142</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2087653688.569138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2654122724.907013</v>
+        <v>3859629025.764331</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07032214583279663</v>
+        <v>0.08359675562493205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03644235302617473</v>
+        <v>0.04829020246596969</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>146</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1327061455.205577</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2141529759.608621</v>
+        <v>2784183215.221698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09259674803836834</v>
+        <v>0.1316894542193751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05122531367831662</v>
+        <v>0.04212567957192067</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1070764894.093683</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2898927340.15992</v>
+        <v>2976388590.235188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.101985515187851</v>
+        <v>0.08368216503110483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04157543230207415</v>
+        <v>0.03396244023331206</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>124</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1449463644.771402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2899208360.658203</v>
+        <v>3705265746.8847</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1694357024184233</v>
+        <v>0.2195333267521033</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02821193599802633</v>
+        <v>0.02412794124646445</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>126</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1449604227.552917</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1391687614.684969</v>
+        <v>2161930161.647968</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1775810952541163</v>
+        <v>0.1907557831671419</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02919551332254816</v>
+        <v>0.02445419425502742</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>695843918.3591516</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4312896500.925138</v>
+        <v>5339179808.31433</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2170639287798159</v>
+        <v>0.1780825443227489</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04327695038617969</v>
+        <v>0.04403290783744653</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>166</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2156448296.590614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3574561727.973282</v>
+        <v>3937758867.289423</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1573803894119818</v>
+        <v>0.1385270104020372</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04788635991567673</v>
+        <v>0.03201445236946954</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>163</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1787280847.051573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2317663058.188253</v>
+        <v>3050388765.297565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1507153260488613</v>
+        <v>0.191540305559179</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04306143891362764</v>
+        <v>0.03860384058862196</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>135</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1158831484.651575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4930307892.759515</v>
+        <v>4526835617.345469</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09392357786237027</v>
+        <v>0.08442889045082182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02008758554105824</v>
+        <v>0.02116362657927219</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>132</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2465153954.07185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3107963242.854178</v>
+        <v>3547841683.459801</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1635666338322353</v>
+        <v>0.1318080671451063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03366094858238142</v>
+        <v>0.036289099264103</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>128</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1553981648.062032</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1391318138.444894</v>
+        <v>1272023232.115102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06642524389137086</v>
+        <v>0.06905761497268474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04262605487901776</v>
+        <v>0.04437710033400975</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>695659130.1054912</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1920193815.325965</v>
+        <v>2726043063.905352</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1017057345722472</v>
+        <v>0.08751677629430663</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04396360079181016</v>
+        <v>0.04813502806742089</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>960096990.3044469</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5242582947.54825</v>
+        <v>3224664098.28923</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1363842820441281</v>
+        <v>0.1516013617358148</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05109602606047314</v>
+        <v>0.03426430205625258</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2621291446.986568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3612150569.453682</v>
+        <v>3601325155.355684</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1850419395631366</v>
+        <v>0.1687249303906942</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02587158510011468</v>
+        <v>0.02719782004939959</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>129</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1806075270.652854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1261119670.213147</v>
+        <v>1072135388.896358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1525184339869202</v>
+        <v>0.1897333865353061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02347069753523281</v>
+        <v>0.02416162847068028</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>630559927.9493142</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2193301154.634181</v>
+        <v>1839129334.223608</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1142542502021618</v>
+        <v>0.1041819433543549</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02360704588028336</v>
+        <v>0.02789567169101669</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1096650583.098481</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1878089748.35453</v>
+        <v>1952578500.293803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07431424915158069</v>
+        <v>0.1025352232082107</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04464539038794626</v>
+        <v>0.03853490110344813</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>939044921.8141378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3427246740.325635</v>
+        <v>2452134683.712149</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131495216194521</v>
+        <v>0.09814348476835287</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03795698157677355</v>
+        <v>0.04976826927672833</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1713623406.120177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1208395946.019282</v>
+        <v>968984166.4368348</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1193534786055329</v>
+        <v>0.1579862868948057</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04629759916524012</v>
+        <v>0.04849523972678312</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>604198008.0917987</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2820233186.074222</v>
+        <v>4030554505.546282</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1325414153515146</v>
+        <v>0.1318906141984637</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02766712955835022</v>
+        <v>0.0277489849688731</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>116</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1410116640.366558</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1113893408.947032</v>
+        <v>1013493301.688324</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1160254169914325</v>
+        <v>0.09274187145565586</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02229022494843609</v>
+        <v>0.02060934980922087</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>556946742.2630142</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1313216409.639722</v>
+        <v>1344826124.568197</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09946517605378896</v>
+        <v>0.1044244676566127</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02453138430503981</v>
+        <v>0.02761860766129513</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>656608253.5825207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4703498764.261953</v>
+        <v>4126044454.554828</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1257699384723985</v>
+        <v>0.1039588527198172</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02256618257556347</v>
+        <v>0.01738836216301338</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2351749357.377518</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3567732219.730549</v>
+        <v>3738188333.619699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1507822878538502</v>
+        <v>0.1238992411820934</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03889301124062364</v>
+        <v>0.04256636093950721</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>127</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1783866170.37116</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5157258415.333433</v>
+        <v>4277122031.631646</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1445010874927269</v>
+        <v>0.1450597319862715</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04041743519676698</v>
+        <v>0.03328006867511921</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>174</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2578629144.326571</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1636443050.212822</v>
+        <v>1784654406.810768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.125012603120421</v>
+        <v>0.08649804529412052</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03358244255721025</v>
+        <v>0.03714016663505032</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>818221521.2044377</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1191789225.394593</v>
+        <v>968006216.6177832</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07516102805777146</v>
+        <v>0.1113266990986298</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03276482336946246</v>
+        <v>0.0330371913295664</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>595894566.1111108</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1508011088.339936</v>
+        <v>1609432764.479031</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0750237260154598</v>
+        <v>0.0874228079336687</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03275250660678627</v>
+        <v>0.03239622344480771</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>754005614.1924869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2094452122.524262</v>
+        <v>2932475401.973351</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2018094900726784</v>
+        <v>0.1330912548326707</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05768479791969106</v>
+        <v>0.05090302639880222</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1047226134.008346</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1285606868.161082</v>
+        <v>1083760258.549106</v>
       </c>
       <c r="F34" t="n">
-        <v>0.111177426773302</v>
+        <v>0.1006890165826372</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01930367397093615</v>
+        <v>0.02008432009066428</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>642803425.1540346</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>995261948.0758845</v>
+        <v>1105001476.343121</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08921124142573038</v>
+        <v>0.09006974975148686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02946407741233401</v>
+        <v>0.04283159524991054</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>497630993.6578063</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2628877360.598662</v>
+        <v>2231985888.337552</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1219992620693844</v>
+        <v>0.1219235290107031</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02550349035132049</v>
+        <v>0.02236878228372762</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1314438691.944258</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2843862696.299143</v>
+        <v>2884995354.299405</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0941991268569687</v>
+        <v>0.07817008370100051</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0404224002706196</v>
+        <v>0.02641371671282648</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>104</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1421931491.528588</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1589461135.404028</v>
+        <v>2029568867.149566</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08953561587585895</v>
+        <v>0.07984417582929126</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03733758527816881</v>
+        <v>0.03694229720057876</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>794730604.3307921</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2048785507.118706</v>
+        <v>1485818581.695325</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1469992830375346</v>
+        <v>0.1462332900178595</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02910943938672984</v>
+        <v>0.0219362967981209</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1024392740.736586</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1371868883.024634</v>
+        <v>1239635841.916663</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09794159952648274</v>
+        <v>0.1187790195233229</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05578004254501253</v>
+        <v>0.05615429488666188</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>685934439.7975103</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2255303886.622612</v>
+        <v>1784942849.160174</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1334439501176199</v>
+        <v>0.1662916603585471</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03757955236840913</v>
+        <v>0.03775525674852252</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>101</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1127651992.523154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3560151808.394606</v>
+        <v>3716670010.879011</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07968547423626804</v>
+        <v>0.1109192197694646</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03674631352389854</v>
+        <v>0.03266500910227242</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>131</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1780075903.211433</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2996336830.179021</v>
+        <v>2499219401.679231</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1676422356782005</v>
+        <v>0.141221512816897</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229164327212345</v>
+        <v>0.01568355467083824</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>137</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1498168413.861948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1813620968.569407</v>
+        <v>2157785528.140919</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07605028163806138</v>
+        <v>0.06268921420096206</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02998093165938832</v>
+        <v>0.03553702140663633</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>906810553.4486756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2526302885.829219</v>
+        <v>1611060687.260548</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1298772195512678</v>
+        <v>0.1781759350014049</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05372070008330825</v>
+        <v>0.05336998205369557</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1263151486.881423</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5320692497.862115</v>
+        <v>4333661170.723525</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1471498105179289</v>
+        <v>0.1077265260894285</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04768986950396728</v>
+        <v>0.05654089980134221</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>140</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2660346294.103391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4515582501.625429</v>
+        <v>5085997743.099482</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1661170713628572</v>
+        <v>0.1628668959105494</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03718724130732876</v>
+        <v>0.03904757531611848</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>106</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2257791279.155508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3367631168.19905</v>
+        <v>4517114069.76955</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06747258176713571</v>
+        <v>0.08106442177069874</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02363646910654481</v>
+        <v>0.03341063160087106</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1683815655.216306</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1402213857.574325</v>
+        <v>1581209048.016198</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1398344158043955</v>
+        <v>0.1785547090871544</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03994185165759466</v>
+        <v>0.0351189834547374</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>701106976.0376596</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3297074245.475105</v>
+        <v>4171572602.83456</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1312373708390569</v>
+        <v>0.1251068604663096</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04715928043134224</v>
+        <v>0.03629743986953674</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>135</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1648537161.468379</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1440813249.299664</v>
+        <v>1133135628.773677</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1564269495611237</v>
+        <v>0.1745242385592508</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04863390606405887</v>
+        <v>0.05074081298009474</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>720406637.1946098</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5006449656.800811</v>
+        <v>4610860700.57366</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1248037359072303</v>
+        <v>0.110574305351025</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04222776822363396</v>
+        <v>0.04197028293618232</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>163</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2503224825.664309</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3246688115.186997</v>
+        <v>2552466888.871193</v>
       </c>
       <c r="F53" t="n">
-        <v>0.19292164555383</v>
+        <v>0.1598227587409335</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02520644595232247</v>
+        <v>0.02777466864175433</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>113</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1623344073.012772</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4060650565.275123</v>
+        <v>3893372306.497254</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1171643282722544</v>
+        <v>0.1173415502904135</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04406255685644479</v>
+        <v>0.04627457369068311</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2030325351.468918</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3671317409.945485</v>
+        <v>4878332042.886563</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2046246941201018</v>
+        <v>0.159632744432783</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03044228924358062</v>
+        <v>0.02449849647530824</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1835658665.414834</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1384158934.241672</v>
+        <v>1543525789.486565</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1212089737976969</v>
+        <v>0.1521778527427039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03967019390604007</v>
+        <v>0.05392744623142252</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>692079526.5293453</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2804362907.228588</v>
+        <v>3019817534.240186</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1261887064411918</v>
+        <v>0.1461680643660789</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01718171797334318</v>
+        <v>0.0221772310577939</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>125</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1402181441.605977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1174670410.452679</v>
+        <v>1859985397.627069</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1922710102486878</v>
+        <v>0.1723320651385342</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03471023609368035</v>
+        <v>0.02907322310094885</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>587335266.0566465</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5284419309.736107</v>
+        <v>4742577365.68161</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0934261508722149</v>
+        <v>0.1243778840735149</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04113615445782915</v>
+        <v>0.04416891524744122</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2642209568.882547</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3215010472.012606</v>
+        <v>2873250524.357326</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1834028925230368</v>
+        <v>0.1759478273579965</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02205765598020057</v>
+        <v>0.0313964327833962</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1607505328.922817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2378134377.373403</v>
+        <v>3037633637.857473</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1715344154761673</v>
+        <v>0.1762119023459939</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02455587947353487</v>
+        <v>0.02630285877342354</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>136</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1189067227.809753</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1635701511.733592</v>
+        <v>2118016106.226725</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1301937256064451</v>
+        <v>0.1422073900318205</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04833596265568929</v>
+        <v>0.04040235593933241</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>817850759.2674735</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4782198338.381016</v>
+        <v>5272471126.534386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.103747242852815</v>
+        <v>0.1077834322077399</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04115274608660544</v>
+        <v>0.03568833633917898</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>113</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2391099196.674493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4831658667.707558</v>
+        <v>4273841480.245981</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1485273870509362</v>
+        <v>0.1710513864308759</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02759808978502172</v>
+        <v>0.03347678305213694</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>123</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2415829428.226975</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5202008221.677095</v>
+        <v>5535489769.942503</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1662680860825468</v>
+        <v>0.1663470900520947</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02431144399047524</v>
+        <v>0.03203830253532806</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>141</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2601004057.695468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5477964550.623982</v>
+        <v>3746893384.811367</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1180047061310838</v>
+        <v>0.119201886426655</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03650845269678301</v>
+        <v>0.03215556667025317</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2738982328.093191</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2239776272.054305</v>
+        <v>2981055050.770514</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09104380469896206</v>
+        <v>0.07448062255251209</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04272780418713314</v>
+        <v>0.0370504698194258</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>127</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1119888218.675121</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6051292744.853228</v>
+        <v>4209155986.066624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.108582703218937</v>
+        <v>0.1221395719589007</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0418974900738784</v>
+        <v>0.04164574022141133</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3025646492.532705</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2088492623.96284</v>
+        <v>2423364231.233082</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1834569256665666</v>
+        <v>0.1422351761709381</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04994418385076749</v>
+        <v>0.05102134940170496</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1044246328.417177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2876176300.3751</v>
+        <v>3045643534.587431</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1024909433505571</v>
+        <v>0.07418212677082475</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04713356248060777</v>
+        <v>0.03084153339948825</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>113</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1438088119.143095</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3821817194.462113</v>
+        <v>5182427067.298235</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1534119292940662</v>
+        <v>0.1257052081233859</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03382203264344272</v>
+        <v>0.03229926755331936</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>144</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1910908614.979611</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1485332127.481332</v>
+        <v>2064927989.020345</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09478961588831319</v>
+        <v>0.1085864797734892</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03249097807854197</v>
+        <v>0.05029470724471043</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>742666093.1129791</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2903278730.139523</v>
+        <v>2679946816.831941</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1092813675720143</v>
+        <v>0.1111430317226895</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03487937309602098</v>
+        <v>0.03551182734337753</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>150</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1451639369.926831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2522538739.998685</v>
+        <v>3643835415.66315</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1656485794927239</v>
+        <v>0.1196158899988884</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02631204794470631</v>
+        <v>0.03355340267382736</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>134</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1261269476.656991</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2062253397.376615</v>
+        <v>2226988696.052713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1611438609315554</v>
+        <v>0.13262107576639</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03485449834976578</v>
+        <v>0.02385058041323203</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1031126657.052057</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5316377805.061443</v>
+        <v>3500208776.827187</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09138343915474059</v>
+        <v>0.1033780874357088</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0219775621396663</v>
+        <v>0.02356020115274806</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2658188942.480334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1552573451.242268</v>
+        <v>1659608165.406401</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1562395018245325</v>
+        <v>0.1829193998360451</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02300065018373933</v>
+        <v>0.03145433614299373</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>776286721.0764351</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4630311677.740063</v>
+        <v>3035268771.385655</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09285286737622268</v>
+        <v>0.09796780219079809</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04644453227632055</v>
+        <v>0.05625836800111395</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>137</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2315155759.48513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1917508467.09915</v>
+        <v>1893304119.430789</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1082143214176498</v>
+        <v>0.1323998612273764</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0328083444087415</v>
+        <v>0.03398674307923887</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>958754340.8124899</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3978439816.092913</v>
+        <v>4261860041.09086</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09414078837283275</v>
+        <v>0.07759505535975308</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02874829384032119</v>
+        <v>0.0361325321416416</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1989219906.473667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3958637602.240551</v>
+        <v>4664684138.154351</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1043998161337115</v>
+        <v>0.1285705020370834</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02971239888457282</v>
+        <v>0.02172933539850377</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1979318762.815792</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4029428341.053968</v>
+        <v>3434414716.140512</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1888556594948319</v>
+        <v>0.17902181090753</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01791111898794164</v>
+        <v>0.02152828161880669</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>139</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2014714208.652784</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1921585331.216817</v>
+        <v>2454595985.599818</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1451074777313414</v>
+        <v>0.1171511910789503</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03729702466073942</v>
+        <v>0.0395972024346768</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>960792641.1756039</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2112149326.480431</v>
+        <v>1639490389.417701</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1064948481159191</v>
+        <v>0.11213101804608</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0315423978025895</v>
+        <v>0.03531247445277785</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1056074651.843517</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2918064609.61465</v>
+        <v>3143551861.452396</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1833151383324818</v>
+        <v>0.1558873024211042</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04297013435386889</v>
+        <v>0.04185973999406728</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>149</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1459032355.953662</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1708268376.808757</v>
+        <v>2353332710.230452</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1522219367172367</v>
+        <v>0.1163387459115693</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02730707294514304</v>
+        <v>0.02678351722452633</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>53</v>
-      </c>
-      <c r="J86" t="n">
-        <v>854134175.4619732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1166660378.370451</v>
+        <v>909357464.528757</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1635902351553348</v>
+        <v>0.1511431181688273</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03735775409987772</v>
+        <v>0.03639045615775915</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>583330236.2354058</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2450199176.799969</v>
+        <v>3098013062.651572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1507897058203409</v>
+        <v>0.1107410432728402</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03055037397082301</v>
+        <v>0.02409365667361594</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>156</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1225099564.538817</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2976284379.100174</v>
+        <v>3047914085.926969</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1445159642497774</v>
+        <v>0.1332488821306359</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03984319532523877</v>
+        <v>0.0415002086079125</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>133</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1488142229.412241</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2035017644.53757</v>
+        <v>1880843296.573253</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09992609268820284</v>
+        <v>0.125780493404833</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04695466502584339</v>
+        <v>0.04564571819349438</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1017508898.919152</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1566901707.231076</v>
+        <v>1466866035.820365</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1815231094257196</v>
+        <v>0.1754458111006896</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04735326461521251</v>
+        <v>0.05467684612099218</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>783450883.6519611</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2791941556.801653</v>
+        <v>1940814759.174998</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07675496766541992</v>
+        <v>0.09018488914034128</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03031405862004351</v>
+        <v>0.0411142126867874</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>112</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1395970784.46599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3578533566.930491</v>
+        <v>4740292061.214959</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1375672441742857</v>
+        <v>0.1358035294450048</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05008943872847961</v>
+        <v>0.05139484035229411</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1789266811.367403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1725153942.336434</v>
+        <v>1644699963.646224</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1071048055953415</v>
+        <v>0.1239336401381338</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02933723573933404</v>
+        <v>0.04023863150694763</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>862576933.7296808</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2191388185.253482</v>
+        <v>2601660096.089627</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1046073999404512</v>
+        <v>0.1161174597698596</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04237308985663558</v>
+        <v>0.03708543416358768</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1095694151.180826</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1614701211.034507</v>
+        <v>1467196977.305041</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1175214393457952</v>
+        <v>0.0990236648195487</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0353787153559952</v>
+        <v>0.04145602452895689</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>807350633.6405329</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4591443989.859793</v>
+        <v>3522214485.203736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1387557910854701</v>
+        <v>0.164665745733037</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02543454587152331</v>
+        <v>0.02299164893947995</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>127</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2295722098.883847</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2558759396.646265</v>
+        <v>3949738560.267194</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1106733131095527</v>
+        <v>0.1277326352406478</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02711440999205001</v>
+        <v>0.02365831036514715</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1279379653.0918</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2855453666.51048</v>
+        <v>2404953566.885234</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1459215931881158</v>
+        <v>0.1352045139698984</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02694480310188869</v>
+        <v>0.02478041673201817</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1427726808.732579</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3291010703.437167</v>
+        <v>3971931336.268745</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1319376342043717</v>
+        <v>0.1587050226582187</v>
       </c>
       <c r="G100" t="n">
-        <v>0.017415647735331</v>
+        <v>0.02145504257773155</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1645505365.816223</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2639729519.720003</v>
+        <v>2746860933.538096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1786925983209259</v>
+        <v>0.1557216094306372</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04578606324061799</v>
+        <v>0.05566453197623612</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>161</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1319864801.294682</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_396.xlsx
+++ b/output/fit_clients/fit_round_396.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2074358670.219751</v>
+        <v>2042968779.693204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08169965955435354</v>
+        <v>0.09393995921081152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03679638984646739</v>
+        <v>0.03218809479438806</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2309069483.284132</v>
+        <v>2282540187.774181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1113147969999006</v>
+        <v>0.1848108259216363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04425668297067033</v>
+        <v>0.03826479563727788</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3236631393.350114</v>
+        <v>4190555354.930464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1261667605471516</v>
+        <v>0.1509911504341728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03066714655388138</v>
+        <v>0.02714498648345551</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3859629025.764331</v>
+        <v>3816235594.864697</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08359675562493205</v>
+        <v>0.0897037672774627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04829020246596969</v>
+        <v>0.04011977979165149</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2784183215.221698</v>
+        <v>1947488569.167519</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1316894542193751</v>
+        <v>0.1164008890543723</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04212567957192067</v>
+        <v>0.04025956177009116</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2976388590.235188</v>
+        <v>2404634468.993718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08368216503110483</v>
+        <v>0.09696483104835067</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03396244023331206</v>
+        <v>0.0342408992261937</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3705265746.8847</v>
+        <v>3622521234.307061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2195333267521033</v>
+        <v>0.1400933252055468</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02412794124646445</v>
+        <v>0.0278354548237943</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2161930161.647968</v>
+        <v>1957807276.330149</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1907557831671419</v>
+        <v>0.1945447034177472</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02445419425502742</v>
+        <v>0.02580527199516428</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5339179808.31433</v>
+        <v>4505409128.464355</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1780825443227489</v>
+        <v>0.1842986050844801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04403290783744653</v>
+        <v>0.04400850045043982</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3937758867.289423</v>
+        <v>4168741017.795467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1385270104020372</v>
+        <v>0.1153013542991047</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03201445236946954</v>
+        <v>0.04605013914855832</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3050388765.297565</v>
+        <v>3143502854.449429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.191540305559179</v>
+        <v>0.1372074618091128</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03860384058862196</v>
+        <v>0.04571269359591446</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4526835617.345469</v>
+        <v>4546755174.674002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08442889045082182</v>
+        <v>0.08759038288637766</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02116362657927219</v>
+        <v>0.01895472037929534</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3547841683.459801</v>
+        <v>3223969168.263156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1318080671451063</v>
+        <v>0.1282943615615567</v>
       </c>
       <c r="G14" t="n">
-        <v>0.036289099264103</v>
+        <v>0.03283793475133393</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1272023232.115102</v>
+        <v>1154365446.448836</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06905761497268474</v>
+        <v>0.08180059693226485</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04437710033400975</v>
+        <v>0.04227149920099284</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2726043063.905352</v>
+        <v>2849733435.387714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08751677629430663</v>
+        <v>0.07360905610925615</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04813502806742089</v>
+        <v>0.03391806963589283</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3224664098.28923</v>
+        <v>4073158359.321662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1516013617358148</v>
+        <v>0.1292461798468466</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03426430205625258</v>
+        <v>0.05228505437578162</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3601325155.355684</v>
+        <v>3233842186.766886</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1687249303906942</v>
+        <v>0.1642730085125493</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02719782004939959</v>
+        <v>0.0307347099896653</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1072135388.896358</v>
+        <v>1146328540.443861</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1897333865353061</v>
+        <v>0.1858593486487143</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02416162847068028</v>
+        <v>0.02564831658653062</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1839129334.223608</v>
+        <v>1977651515.472768</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1041819433543549</v>
+        <v>0.1529231747414998</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02789567169101669</v>
+        <v>0.02680296292913598</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1952578500.293803</v>
+        <v>2349944934.181124</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025352232082107</v>
+        <v>0.08017659172393002</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03853490110344813</v>
+        <v>0.03136078935557912</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2452134683.712149</v>
+        <v>2513350146.025371</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09814348476835287</v>
+        <v>0.09207806358425391</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04976826927672833</v>
+        <v>0.05597903517894676</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>968984166.4368348</v>
+        <v>1018597906.792663</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1579862868948057</v>
+        <v>0.1677567537930027</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04849523972678312</v>
+        <v>0.05473996002510243</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4030554505.546282</v>
+        <v>3039772826.958954</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1318906141984637</v>
+        <v>0.1358380002566518</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0277489849688731</v>
+        <v>0.03338696818036641</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1013493301.688324</v>
+        <v>1056392135.438017</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09274187145565586</v>
+        <v>0.1193523965344177</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02060934980922087</v>
+        <v>0.02032949228801798</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1344826124.568197</v>
+        <v>986895838.706112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044244676566127</v>
+        <v>0.1019520296745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02761860766129513</v>
+        <v>0.03032062780105562</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4126044454.554828</v>
+        <v>3102269893.232305</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1039588527198172</v>
+        <v>0.1459038453134442</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01738836216301338</v>
+        <v>0.02450270601361763</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3738188333.619699</v>
+        <v>2489267619.459438</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1238992411820934</v>
+        <v>0.1209139745024524</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04256636093950721</v>
+        <v>0.04187548915628027</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4277122031.631646</v>
+        <v>3679680187.813481</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1450597319862715</v>
+        <v>0.148639617370446</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03328006867511921</v>
+        <v>0.02934429255322512</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1784654406.810768</v>
+        <v>1610107296.387195</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08649804529412052</v>
+        <v>0.1315481566820786</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03714016663505032</v>
+        <v>0.02897700070012285</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>968006216.6177832</v>
+        <v>1373215441.284127</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1113266990986298</v>
+        <v>0.08216509444818762</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0330371913295664</v>
+        <v>0.03223980780613171</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1609432764.479031</v>
+        <v>1730526280.25583</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0874228079336687</v>
+        <v>0.1151348195580216</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03239622344480771</v>
+        <v>0.02536191894200936</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2932475401.973351</v>
+        <v>2941390437.171753</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1330912548326707</v>
+        <v>0.1848748503022735</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05090302639880222</v>
+        <v>0.05357671765008817</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1083760258.549106</v>
+        <v>1204829525.998196</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006890165826372</v>
+        <v>0.0842994707075264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02008432009066428</v>
+        <v>0.02242305409182413</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1105001476.343121</v>
+        <v>860726050.8767433</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09006974975148686</v>
+        <v>0.08229597766854431</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04283159524991054</v>
+        <v>0.04182345988427499</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2231985888.337552</v>
+        <v>2999780677.907624</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1219235290107031</v>
+        <v>0.1119975190266374</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02236878228372762</v>
+        <v>0.02757692773481866</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2884995354.299405</v>
+        <v>2317598098.575599</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07817008370100051</v>
+        <v>0.1017315940599132</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02641371671282648</v>
+        <v>0.03584492327968054</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2029568867.149566</v>
+        <v>1861369044.819371</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07984417582929126</v>
+        <v>0.1204316414809364</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03694229720057876</v>
+        <v>0.02559522235083057</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1485818581.695325</v>
+        <v>1577468303.596225</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1462332900178595</v>
+        <v>0.1885672758953608</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0219362967981209</v>
+        <v>0.03226035174747677</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1239635841.916663</v>
+        <v>1602630235.940307</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1187790195233229</v>
+        <v>0.1054312541426218</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05615429488666188</v>
+        <v>0.05577269683245574</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1784942849.160174</v>
+        <v>2137142682.063687</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1662916603585471</v>
+        <v>0.1059704190564023</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03775525674852252</v>
+        <v>0.04451019031123984</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3716670010.879011</v>
+        <v>4173190703.896348</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1109192197694646</v>
+        <v>0.1065334299300167</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03266500910227242</v>
+        <v>0.03889076440785025</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2499219401.679231</v>
+        <v>2493775475.991776</v>
       </c>
       <c r="F43" t="n">
-        <v>0.141221512816897</v>
+        <v>0.1332554445454284</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01568355467083824</v>
+        <v>0.02299263980572803</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2157785528.140919</v>
+        <v>1705686762.137241</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06268921420096206</v>
+        <v>0.08944661703381104</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03553702140663633</v>
+        <v>0.03129606689756669</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1611060687.260548</v>
+        <v>1924138053.378585</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1781759350014049</v>
+        <v>0.1650429304410636</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05336998205369557</v>
+        <v>0.04301231343782779</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4333661170.723525</v>
+        <v>5006375538.152793</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1077265260894285</v>
+        <v>0.1761423846545058</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05654089980134221</v>
+        <v>0.04248611062699115</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5085997743.099482</v>
+        <v>3279311792.99112</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1628668959105494</v>
+        <v>0.1790848150853731</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03904757531611848</v>
+        <v>0.04251938148012276</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4517114069.76955</v>
+        <v>4106117257.816558</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08106442177069874</v>
+        <v>0.07535722399601871</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03341063160087106</v>
+        <v>0.03483102030344269</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1581209048.016198</v>
+        <v>1610501149.311528</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1785547090871544</v>
+        <v>0.1466618958936758</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0351189834547374</v>
+        <v>0.04092498123413671</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4171572602.83456</v>
+        <v>3099386998.840457</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1251068604663096</v>
+        <v>0.1490195754212912</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03629743986953674</v>
+        <v>0.0340904149907983</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1133135628.773677</v>
+        <v>1028945939.833247</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1745242385592508</v>
+        <v>0.1396281449413211</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05074081298009474</v>
+        <v>0.03408751222513293</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4610860700.57366</v>
+        <v>5196626380.745344</v>
       </c>
       <c r="F52" t="n">
-        <v>0.110574305351025</v>
+        <v>0.1326298033302276</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04197028293618232</v>
+        <v>0.04684567340316933</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2552466888.871193</v>
+        <v>3703129852.769697</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1598227587409335</v>
+        <v>0.1865684736296367</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02777466864175433</v>
+        <v>0.02637557882797745</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3893372306.497254</v>
+        <v>3670629934.468696</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1173415502904135</v>
+        <v>0.1335753071375828</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04627457369068311</v>
+        <v>0.0489324240305932</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4878332042.886563</v>
+        <v>4290521618.347042</v>
       </c>
       <c r="F55" t="n">
-        <v>0.159632744432783</v>
+        <v>0.165093807941663</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02449849647530824</v>
+        <v>0.02171221266131159</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1543525789.486565</v>
+        <v>1789422104.029505</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1521778527427039</v>
+        <v>0.1097619123883162</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05392744623142252</v>
+        <v>0.0431473727826047</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3019817534.240186</v>
+        <v>2791299003.8665</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1461680643660789</v>
+        <v>0.145727979683945</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0221772310577939</v>
+        <v>0.01963533540148813</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1859985397.627069</v>
+        <v>1598485951.693111</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1723320651385342</v>
+        <v>0.152020644008409</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02907322310094885</v>
+        <v>0.02975144765983836</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4742577365.68161</v>
+        <v>4013194000.323582</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1243778840735149</v>
+        <v>0.1123346473370165</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04416891524744122</v>
+        <v>0.04746707546995509</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2873250524.357326</v>
+        <v>3354742334.60882</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1759478273579965</v>
+        <v>0.2036714269436408</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0313964327833962</v>
+        <v>0.03261589766131969</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3037633637.857473</v>
+        <v>2266913978.942183</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1762119023459939</v>
+        <v>0.1748490905739171</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02630285877342354</v>
+        <v>0.03102974970926688</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2118016106.226725</v>
+        <v>2067519778.874973</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1422073900318205</v>
+        <v>0.1599140390025573</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04040235593933241</v>
+        <v>0.03039388668093501</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5272471126.534386</v>
+        <v>4797253092.651484</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1077834322077399</v>
+        <v>0.1016202633406642</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03568833633917898</v>
+        <v>0.0384763958170307</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4273841480.245981</v>
+        <v>5052965438.048314</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1710513864308759</v>
+        <v>0.158914541017584</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03347678305213694</v>
+        <v>0.02213152908951753</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5535489769.942503</v>
+        <v>4741533903.748703</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1663470900520947</v>
+        <v>0.1170238257032392</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03203830253532806</v>
+        <v>0.02735754621102779</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3746893384.811367</v>
+        <v>4123629697.05207</v>
       </c>
       <c r="F66" t="n">
-        <v>0.119201886426655</v>
+        <v>0.1423915093384721</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03215556667025317</v>
+        <v>0.04697626702861372</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2981055050.770514</v>
+        <v>2897888950.002573</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07448062255251209</v>
+        <v>0.09992725826420022</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0370504698194258</v>
+        <v>0.0310010573803868</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4209155986.066624</v>
+        <v>4979631452.966956</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221395719589007</v>
+        <v>0.1104695898242538</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04164574022141133</v>
+        <v>0.04759927033788371</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2423364231.233082</v>
+        <v>1847457993.263106</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1422351761709381</v>
+        <v>0.1774531206466637</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05102134940170496</v>
+        <v>0.04310929820332542</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3045643534.587431</v>
+        <v>3520552674.285547</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07418212677082475</v>
+        <v>0.07907304766863561</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03084153339948825</v>
+        <v>0.03860007437801442</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5182427067.298235</v>
+        <v>4692837466.038681</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1257052081233859</v>
+        <v>0.1244400296185944</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03229926755331936</v>
+        <v>0.02385379267411108</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2064927989.020345</v>
+        <v>1579759697.228644</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085864797734892</v>
+        <v>0.0960590475007403</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05029470724471043</v>
+        <v>0.05077329593307237</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2679946816.831941</v>
+        <v>3021787033.074696</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1111430317226895</v>
+        <v>0.07497037642307185</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03551182734337753</v>
+        <v>0.04889310505095186</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3643835415.66315</v>
+        <v>3418237864.646084</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1196158899988884</v>
+        <v>0.1725703531747178</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03355340267382736</v>
+        <v>0.02585125232808399</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2226988696.052713</v>
+        <v>1726015542.716069</v>
       </c>
       <c r="F75" t="n">
-        <v>0.13262107576639</v>
+        <v>0.1396380003096898</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02385058041323203</v>
+        <v>0.02330607617691383</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3500208776.827187</v>
+        <v>3721599447.686139</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1033780874357088</v>
+        <v>0.1129736271180895</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02356020115274806</v>
+        <v>0.03343751617187228</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1659608165.406401</v>
+        <v>2099459615.071752</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1829193998360451</v>
+        <v>0.1300809300304378</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03145433614299373</v>
+        <v>0.03168416226308462</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3035268771.385655</v>
+        <v>4665807924.124481</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09796780219079809</v>
+        <v>0.1265745042595675</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05625836800111395</v>
+        <v>0.05604505439950185</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1893304119.430789</v>
+        <v>1884506218.083106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1323998612273764</v>
+        <v>0.1639256689110756</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03398674307923887</v>
+        <v>0.03198224531192907</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4261860041.09086</v>
+        <v>4251873972.661202</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07759505535975308</v>
+        <v>0.09735641307629918</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0361325321416416</v>
+        <v>0.0322172588318766</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4664684138.154351</v>
+        <v>4244859210.767433</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1285705020370834</v>
+        <v>0.1117505193055413</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02172933539850377</v>
+        <v>0.02448148353148396</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3434414716.140512</v>
+        <v>5579009307.269645</v>
       </c>
       <c r="F82" t="n">
-        <v>0.17902181090753</v>
+        <v>0.1845105494955078</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02152828161880669</v>
+        <v>0.02252710990729758</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2454595985.599818</v>
+        <v>1841677730.880499</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1171511910789503</v>
+        <v>0.09721109058113185</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0395972024346768</v>
+        <v>0.03754425453785311</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1639490389.417701</v>
+        <v>1808041273.918446</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11213101804608</v>
+        <v>0.1148150725768119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03531247445277785</v>
+        <v>0.05134994070297386</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3143551861.452396</v>
+        <v>3151263154.960851</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1558873024211042</v>
+        <v>0.1771140893613604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04185973999406728</v>
+        <v>0.05273651566602242</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2353332710.230452</v>
+        <v>2296929496.862059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163387459115693</v>
+        <v>0.1193306030095151</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02678351722452633</v>
+        <v>0.02541998775828112</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>909357464.528757</v>
+        <v>1437882452.498844</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1511431181688273</v>
+        <v>0.1408749635670166</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03639045615775915</v>
+        <v>0.03131222619981042</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3098013062.651572</v>
+        <v>3131412562.134836</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1107410432728402</v>
+        <v>0.1201906551414038</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02409365667361594</v>
+        <v>0.03247641976303919</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3047914085.926969</v>
+        <v>2589186339.632166</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1332488821306359</v>
+        <v>0.1389213450475164</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0415002086079125</v>
+        <v>0.0352323090117669</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1880843296.573253</v>
+        <v>2075065912.418913</v>
       </c>
       <c r="F90" t="n">
-        <v>0.125780493404833</v>
+        <v>0.08369892263191799</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04564571819349438</v>
+        <v>0.04963046017488877</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1466866035.820365</v>
+        <v>1481411135.354666</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1754458111006896</v>
+        <v>0.1922542786376787</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05467684612099218</v>
+        <v>0.03979075452670405</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1940814759.174998</v>
+        <v>2490151177.749704</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09018488914034128</v>
+        <v>0.09825735924470456</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0411142126867874</v>
+        <v>0.04037157455215989</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4740292061.214959</v>
+        <v>4412015189.940609</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1358035294450048</v>
+        <v>0.1381186391015775</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05139484035229411</v>
+        <v>0.03429338488041522</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1644699963.646224</v>
+        <v>2452100751.803776</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1239336401381338</v>
+        <v>0.1177119518435635</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04023863150694763</v>
+        <v>0.0280153338350287</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2601660096.089627</v>
+        <v>3193956563.035599</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1161174597698596</v>
+        <v>0.09954054848850466</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03708543416358768</v>
+        <v>0.05168487690062325</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1467196977.305041</v>
+        <v>2182362044.261438</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0990236648195487</v>
+        <v>0.1397446626640553</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04145602452895689</v>
+        <v>0.03387271194957465</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3522214485.203736</v>
+        <v>4972709546.030104</v>
       </c>
       <c r="F97" t="n">
-        <v>0.164665745733037</v>
+        <v>0.1549210713845917</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02299164893947995</v>
+        <v>0.02373711124223191</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3949738560.267194</v>
+        <v>3762418621.053795</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1277326352406478</v>
+        <v>0.08583756701612374</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02365831036514715</v>
+        <v>0.02771035358479176</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2404953566.885234</v>
+        <v>2374903856.60743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1352045139698984</v>
+        <v>0.1172608765463818</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02478041673201817</v>
+        <v>0.02354444665636777</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3971931336.268745</v>
+        <v>4284115365.887581</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1587050226582187</v>
+        <v>0.1344786358502423</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02145504257773155</v>
+        <v>0.02163715905840021</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2746860933.538096</v>
+        <v>2541768626.160534</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1557216094306372</v>
+        <v>0.2208374198196065</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05566453197623612</v>
+        <v>0.05160160694853147</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_396.xlsx
+++ b/output/fit_clients/fit_round_396.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2042968779.693204</v>
+        <v>1991113449.062799</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09393995921081152</v>
+        <v>0.07769695263509248</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03218809479438806</v>
+        <v>0.0289467812784895</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2282540187.774181</v>
+        <v>2099403556.786123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1848108259216363</v>
+        <v>0.175692094072415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03826479563727788</v>
+        <v>0.04461828624087553</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4190555354.930464</v>
+        <v>4290803708.887947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1509911504341728</v>
+        <v>0.1383703128376732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02714498648345551</v>
+        <v>0.03296391775396848</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>202</v>
+      </c>
+      <c r="J4" t="n">
+        <v>395</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46.41136352437537</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3816235594.864697</v>
+        <v>3687642455.811346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0897037672774627</v>
+        <v>0.07041878378716557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04011977979165149</v>
+        <v>0.03767763801374067</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>161</v>
+      </c>
+      <c r="J5" t="n">
+        <v>396</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1947488569.167519</v>
+        <v>2099802815.112081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1164008890543723</v>
+        <v>0.1159673739078362</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04025956177009116</v>
+        <v>0.05556635998074397</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2404634468.993718</v>
+        <v>2280086710.626398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09696483104835067</v>
+        <v>0.09000726604109396</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0342408992261937</v>
+        <v>0.0299997541402893</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3622521234.307061</v>
+        <v>3082974018.778819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1400933252055468</v>
+        <v>0.2003388248870084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0278354548237943</v>
+        <v>0.02643027736552876</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>108</v>
+      </c>
+      <c r="J8" t="n">
+        <v>394</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1957807276.330149</v>
+        <v>1680402951.734372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1945447034177472</v>
+        <v>0.1590736351392219</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02580527199516428</v>
+        <v>0.03233863272143989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4505409128.464355</v>
+        <v>4141523065.766388</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1842986050844801</v>
+        <v>0.1968164576780369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04400850045043982</v>
+        <v>0.043875019661786</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>395</v>
+      </c>
+      <c r="K10" t="n">
+        <v>47.66488798667736</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4168741017.795467</v>
+        <v>3397216575.598199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1153013542991047</v>
+        <v>0.1561388123799844</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04605013914855832</v>
+        <v>0.0369650406017729</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>166</v>
+      </c>
+      <c r="J11" t="n">
+        <v>395</v>
+      </c>
+      <c r="K11" t="n">
+        <v>39.28488878729883</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3143502854.449429</v>
+        <v>2220990280.494291</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1372074618091128</v>
+        <v>0.1479387598477599</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04571269359591446</v>
+        <v>0.05314107928152033</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4546755174.674002</v>
+        <v>4314864735.59606</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08759038288637766</v>
+        <v>0.09977681566266902</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01895472037929534</v>
+        <v>0.02640916150961229</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>206</v>
+      </c>
+      <c r="J13" t="n">
+        <v>396</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3223969168.263156</v>
+        <v>2786163313.477679</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1282943615615567</v>
+        <v>0.1408745584827782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03283793475133393</v>
+        <v>0.0382147227499739</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1154365446.448836</v>
+        <v>1456184865.813106</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08180059693226485</v>
+        <v>0.08529721574541707</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04227149920099284</v>
+        <v>0.03237492077195509</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2849733435.387714</v>
+        <v>2147491537.068946</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07360905610925615</v>
+        <v>0.08877524821411391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03391806963589283</v>
+        <v>0.05012867590304756</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4073158359.321662</v>
+        <v>5124796920.494792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1292461798468466</v>
+        <v>0.1686560543519836</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05228505437578162</v>
+        <v>0.0442593970472612</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>191</v>
+      </c>
+      <c r="J17" t="n">
+        <v>396</v>
+      </c>
+      <c r="K17" t="n">
+        <v>48.23925450158815</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3233842186.766886</v>
+        <v>3123214944.167924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1642730085125493</v>
+        <v>0.1652575136339393</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0307347099896653</v>
+        <v>0.02998674046566267</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>97</v>
+      </c>
+      <c r="J18" t="n">
+        <v>395</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40.15166069975483</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1146328540.443861</v>
+        <v>1330064177.989469</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1858593486487143</v>
+        <v>0.1553031948431239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02564831658653062</v>
+        <v>0.01681584659588657</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1977651515.472768</v>
+        <v>2730840769.27672</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1529231747414998</v>
+        <v>0.121220521465545</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02680296292913598</v>
+        <v>0.02254675349615155</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2349944934.181124</v>
+        <v>1842599518.758693</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08017659172393002</v>
+        <v>0.08949199240234075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03136078935557912</v>
+        <v>0.03217556564628286</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2513350146.025371</v>
+        <v>3963406153.525518</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09207806358425391</v>
+        <v>0.1092000506683032</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05597903517894676</v>
+        <v>0.05727209041121357</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>108</v>
+      </c>
+      <c r="J22" t="n">
+        <v>396</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1018597906.792663</v>
+        <v>1201310831.36009</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1677567537930027</v>
+        <v>0.1335939131029031</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05473996002510243</v>
+        <v>0.04438671818459274</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3039772826.958954</v>
+        <v>3788249573.142562</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1358380002566518</v>
+        <v>0.09097037633995636</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03338696818036641</v>
+        <v>0.03320603029295442</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>123</v>
+      </c>
+      <c r="J24" t="n">
+        <v>396</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1056392135.438017</v>
+        <v>1003884250.380131</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1193523965344177</v>
+        <v>0.09031815026812688</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02032949228801798</v>
+        <v>0.02823819152348182</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>986895838.706112</v>
+        <v>1274335684.141807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1019520296745</v>
+        <v>0.09641396527326794</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03032062780105562</v>
+        <v>0.03438178864878667</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3102269893.232305</v>
+        <v>2992578013.009372</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1459038453134442</v>
+        <v>0.1050587873426199</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02450270601361763</v>
+        <v>0.0177002191543536</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>165</v>
+      </c>
+      <c r="J27" t="n">
+        <v>394</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2489267619.459438</v>
+        <v>2399519408.501274</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1209139745024524</v>
+        <v>0.1371592394964157</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04187548915628027</v>
+        <v>0.04310319689115413</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>395</v>
+      </c>
+      <c r="K28" t="n">
+        <v>22.51371254754405</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3679680187.813481</v>
+        <v>4075521933.573627</v>
       </c>
       <c r="F29" t="n">
-        <v>0.148639617370446</v>
+        <v>0.1027938645930016</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02934429255322512</v>
+        <v>0.03051957858317702</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>337</v>
+      </c>
+      <c r="J29" t="n">
+        <v>395</v>
+      </c>
+      <c r="K29" t="n">
+        <v>46.3842585334929</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1610107296.387195</v>
+        <v>2095921421.965451</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1315481566820786</v>
+        <v>0.1288559959274216</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02897700070012285</v>
+        <v>0.02581763382883396</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1373215441.284127</v>
+        <v>1068157809.086597</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08216509444818762</v>
+        <v>0.1084217297461808</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03223980780613171</v>
+        <v>0.03794334833091243</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1730526280.25583</v>
+        <v>1686254577.247374</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1151348195580216</v>
+        <v>0.08781697357858337</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02536191894200936</v>
+        <v>0.02919509656547408</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2941390437.171753</v>
+        <v>2363441973.531491</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1848748503022735</v>
+        <v>0.1891311535251559</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05357671765008817</v>
+        <v>0.05547674660234164</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1204829525.998196</v>
+        <v>1426686930.580053</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0842994707075264</v>
+        <v>0.1011148804701341</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02242305409182413</v>
+        <v>0.01710920136420871</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>860726050.8767433</v>
+        <v>1235823332.412451</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08229597766854431</v>
+        <v>0.09745678430007687</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04182345988427499</v>
+        <v>0.04299726730848537</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2999780677.907624</v>
+        <v>2884626809.114346</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1119975190266374</v>
+        <v>0.14878655162119</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02757692773481866</v>
+        <v>0.02088884332882992</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2317598098.575599</v>
+        <v>2673579294.665508</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1017315940599132</v>
+        <v>0.1046043892487003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03584492327968054</v>
+        <v>0.04140668584898323</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1861369044.819371</v>
+        <v>1632832942.077539</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1204316414809364</v>
+        <v>0.1225384145365778</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02559522235083057</v>
+        <v>0.02988192217116967</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1577468303.596225</v>
+        <v>1867354982.411509</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1885672758953608</v>
+        <v>0.1928674495991922</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03226035174747677</v>
+        <v>0.02582783399451438</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1602630235.940307</v>
+        <v>1392857239.624604</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1054312541426218</v>
+        <v>0.1611484273896678</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05577269683245574</v>
+        <v>0.0368903780534006</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2137142682.063687</v>
+        <v>2872173243.495807</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1059704190564023</v>
+        <v>0.1540685370852213</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04451019031123984</v>
+        <v>0.0458649986131698</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4173190703.896348</v>
+        <v>3308874569.363097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1065334299300167</v>
+        <v>0.08167323059133444</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03889076440785025</v>
+        <v>0.03802828719811294</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>172</v>
+      </c>
+      <c r="J42" t="n">
+        <v>395</v>
+      </c>
+      <c r="K42" t="n">
+        <v>38.49365397467848</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2493775475.991776</v>
+        <v>1993105848.28949</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1332554445454284</v>
+        <v>0.1675483308405452</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02299263980572803</v>
+        <v>0.0248280653580315</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1705686762.137241</v>
+        <v>1717415602.467242</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08944661703381104</v>
+        <v>0.08777549834754089</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03129606689756669</v>
+        <v>0.02302541191375686</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1924138053.378585</v>
+        <v>1874050815.90192</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1650429304410636</v>
+        <v>0.1487819644244366</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04301231343782779</v>
+        <v>0.05448480984307849</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5006375538.152793</v>
+        <v>4526724328.527136</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1761423846545058</v>
+        <v>0.122790548836593</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04248611062699115</v>
+        <v>0.05110233703509996</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>237</v>
+      </c>
+      <c r="J46" t="n">
+        <v>396</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3279311792.99112</v>
+        <v>4354953653.39882</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1790848150853731</v>
+        <v>0.1932375176202394</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04251938148012276</v>
+        <v>0.04937551502969704</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>177</v>
+      </c>
+      <c r="J47" t="n">
+        <v>396</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4106117257.816558</v>
+        <v>3719944915.943705</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07535722399601871</v>
+        <v>0.1105934721173076</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03483102030344269</v>
+        <v>0.0245744456647499</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>204</v>
+      </c>
+      <c r="J48" t="n">
+        <v>396</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1610501149.311528</v>
+        <v>1344202338.678222</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1466618958936758</v>
+        <v>0.1763312148754458</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04092498123413671</v>
+        <v>0.03724874791024279</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3099386998.840457</v>
+        <v>3133538340.414099</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1490195754212912</v>
+        <v>0.1665768982205654</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0340904149907983</v>
+        <v>0.04467299463645463</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>135</v>
+      </c>
+      <c r="J50" t="n">
+        <v>395</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.81698835080579</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1028945939.833247</v>
+        <v>1304302626.167157</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1396281449413211</v>
+        <v>0.130310380378926</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03408751222513293</v>
+        <v>0.05247242582170627</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5196626380.745344</v>
+        <v>4021156934.183054</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1326298033302276</v>
+        <v>0.1086266625930199</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04684567340316933</v>
+        <v>0.04782973461795208</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>230</v>
+      </c>
+      <c r="J52" t="n">
+        <v>396</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3703129852.769697</v>
+        <v>2574413645.876712</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1865684736296367</v>
+        <v>0.2029859699141999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02637557882797745</v>
+        <v>0.02893080479468601</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3670629934.468696</v>
+        <v>4863966038.021278</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1335753071375828</v>
+        <v>0.1354229021066608</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0489324240305932</v>
+        <v>0.04138261349472437</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>211</v>
+      </c>
+      <c r="J54" t="n">
+        <v>396</v>
+      </c>
+      <c r="K54" t="n">
+        <v>49.09390658455204</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4290521618.347042</v>
+        <v>4984805221.702203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.165093807941663</v>
+        <v>0.1467215098693485</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02171221266131159</v>
+        <v>0.03175278196972582</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>191</v>
+      </c>
+      <c r="J55" t="n">
+        <v>396</v>
+      </c>
+      <c r="K55" t="n">
+        <v>54.12201945027402</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1789422104.029505</v>
+        <v>1857999303.039024</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1097619123883162</v>
+        <v>0.1061678968676723</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0431473727826047</v>
+        <v>0.04281551856986173</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2791299003.8665</v>
+        <v>4531497966.758217</v>
       </c>
       <c r="F57" t="n">
-        <v>0.145727979683945</v>
+        <v>0.1792916110996119</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01963533540148813</v>
+        <v>0.02146620591903267</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>168</v>
+      </c>
+      <c r="J57" t="n">
+        <v>396</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1598485951.693111</v>
+        <v>1638239758.196694</v>
       </c>
       <c r="F58" t="n">
-        <v>0.152020644008409</v>
+        <v>0.1597823024455277</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02975144765983836</v>
+        <v>0.03455586954747258</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4013194000.323582</v>
+        <v>5033218205.142243</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1123346473370165</v>
+        <v>0.1047943855990199</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04746707546995509</v>
+        <v>0.03888565155726854</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>193</v>
+      </c>
+      <c r="J59" t="n">
+        <v>396</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3354742334.60882</v>
+        <v>2325923588.373556</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2036714269436408</v>
+        <v>0.1989261952924588</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03261589766131969</v>
+        <v>0.02071491482818921</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>72</v>
+      </c>
+      <c r="J60" t="n">
+        <v>391</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2266913978.942183</v>
+        <v>3382457278.590492</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1748490905739171</v>
+        <v>0.1674986693909117</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03102974970926688</v>
+        <v>0.03042243765226124</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2067519778.874973</v>
+        <v>1391350669.019938</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1599140390025573</v>
+        <v>0.1813599435067612</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03039388668093501</v>
+        <v>0.03514111533958818</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4797253092.651484</v>
+        <v>3942263897.664048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1016202633406642</v>
+        <v>0.09977988420994306</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0384763958170307</v>
+        <v>0.03919209302596904</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>197</v>
+      </c>
+      <c r="J63" t="n">
+        <v>395</v>
+      </c>
+      <c r="K63" t="n">
+        <v>44.93812802724582</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5052965438.048314</v>
+        <v>5232004586.0852</v>
       </c>
       <c r="F64" t="n">
-        <v>0.158914541017584</v>
+        <v>0.1793228604415331</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02213152908951753</v>
+        <v>0.03124306524114703</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>197</v>
+      </c>
+      <c r="J64" t="n">
+        <v>395</v>
+      </c>
+      <c r="K64" t="n">
+        <v>47.84006921736775</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4741533903.748703</v>
+        <v>4918766110.129119</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1170238257032392</v>
+        <v>0.1072665091064678</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02735754621102779</v>
+        <v>0.02558466520505415</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>294</v>
+      </c>
+      <c r="J65" t="n">
+        <v>396</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4123629697.05207</v>
+        <v>4674281437.879669</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1423915093384721</v>
+        <v>0.1419179002808894</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04697626702861372</v>
+        <v>0.0404725659073679</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>196</v>
+      </c>
+      <c r="J66" t="n">
+        <v>395</v>
+      </c>
+      <c r="K66" t="n">
+        <v>45.71470554567845</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2897888950.002573</v>
+        <v>2425725701.342214</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09992725826420022</v>
+        <v>0.07478703810273737</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0310010573803868</v>
+        <v>0.05150413811592914</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4979631452.966956</v>
+        <v>5994581863.042657</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1104695898242538</v>
+        <v>0.1010233464992296</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04759927033788371</v>
+        <v>0.04219871805695308</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>215</v>
+      </c>
+      <c r="J68" t="n">
+        <v>396</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1847457993.263106</v>
+        <v>2011097782.720881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1774531206466637</v>
+        <v>0.1187448757774633</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04310929820332542</v>
+        <v>0.04358506168837599</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3520552674.285547</v>
+        <v>2246198117.223273</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07907304766863561</v>
+        <v>0.07564799116219319</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03860007437801442</v>
+        <v>0.03691704099156153</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4692837466.038681</v>
+        <v>4628528126.214172</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1244400296185944</v>
+        <v>0.1400489316181568</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02385379267411108</v>
+        <v>0.03196579337846518</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>281</v>
+      </c>
+      <c r="J71" t="n">
+        <v>396</v>
+      </c>
+      <c r="K71" t="n">
+        <v>49.38858099226557</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1579759697.228644</v>
+        <v>1803372258.508828</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0960590475007403</v>
+        <v>0.06947592179251784</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05077329593307237</v>
+        <v>0.04622051743171424</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3021787033.074696</v>
+        <v>3169085041.310651</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07497037642307185</v>
+        <v>0.09369139815894439</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04889310505095186</v>
+        <v>0.03886232442726143</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3418237864.646084</v>
+        <v>3227350614.852063</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1725703531747178</v>
+        <v>0.1807059366709052</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02585125232808399</v>
+        <v>0.03450326369541867</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1726015542.716069</v>
+        <v>1566996435.219637</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1396380003096898</v>
+        <v>0.1098101031444758</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02330607617691383</v>
+        <v>0.03158943860205526</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3721599447.686139</v>
+        <v>3771793066.942963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1129736271180895</v>
+        <v>0.08016516423376728</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03343751617187228</v>
+        <v>0.0302848612279169</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>187</v>
+      </c>
+      <c r="J76" t="n">
+        <v>395</v>
+      </c>
+      <c r="K76" t="n">
+        <v>42.20293228864726</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2099459615.071752</v>
+        <v>1390567673.690851</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1300809300304378</v>
+        <v>0.1566466862712012</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03168416226308462</v>
+        <v>0.02216026149269026</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4665807924.124481</v>
+        <v>3461454155.954504</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1265745042595675</v>
+        <v>0.1047418827985162</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05604505439950185</v>
+        <v>0.04348939785900134</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>197</v>
+      </c>
+      <c r="J78" t="n">
+        <v>394</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1884506218.083106</v>
+        <v>1604017061.185665</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1639256689110756</v>
+        <v>0.1169935216791021</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03198224531192907</v>
+        <v>0.03012489139298294</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4251873972.661202</v>
+        <v>5060308916.561049</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09735641307629918</v>
+        <v>0.1092581949207018</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0322172588318766</v>
+        <v>0.03042849791883026</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>193</v>
+      </c>
+      <c r="J80" t="n">
+        <v>396</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4244859210.767433</v>
+        <v>3536582602.691829</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117505193055413</v>
+        <v>0.1281268075013589</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02448148353148396</v>
+        <v>0.02853992616800088</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>184</v>
+      </c>
+      <c r="J81" t="n">
+        <v>396</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5579009307.269645</v>
+        <v>5064143441.151973</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1845105494955078</v>
+        <v>0.1906165553041628</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02252710990729758</v>
+        <v>0.02752928637093182</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>272</v>
+      </c>
+      <c r="J82" t="n">
+        <v>395</v>
+      </c>
+      <c r="K82" t="n">
+        <v>45.53777809880309</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1841677730.880499</v>
+        <v>1844072082.770263</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09721109058113185</v>
+        <v>0.1415432119876363</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03754425453785311</v>
+        <v>0.03742257624866319</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1808041273.918446</v>
+        <v>2354169870.504698</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1148150725768119</v>
+        <v>0.08022442053516345</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05134994070297386</v>
+        <v>0.03790946660943174</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3151263154.960851</v>
+        <v>2919511715.518415</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1771140893613604</v>
+        <v>0.141492130007119</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05273651566602242</v>
+        <v>0.03726423534142634</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2296929496.862059</v>
+        <v>2310617419.691748</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1193306030095151</v>
+        <v>0.1416894868882043</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02541998775828112</v>
+        <v>0.02751083266198181</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1437882452.498844</v>
+        <v>1116769041.353706</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1408749635670166</v>
+        <v>0.1156503676715159</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03131222619981042</v>
+        <v>0.03643243436201907</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3131412562.134836</v>
+        <v>3452309196.160664</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1201906551414038</v>
+        <v>0.1572495206618338</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03247641976303919</v>
+        <v>0.03715325452692345</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>51</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="n">
+        <v>53.78413701200473</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2589186339.632166</v>
+        <v>2744667495.188279</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1389213450475164</v>
+        <v>0.1530497573694398</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0352323090117669</v>
+        <v>0.03198846178514339</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2075065912.418913</v>
+        <v>1722348068.100963</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08369892263191799</v>
+        <v>0.1292658296383586</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04963046017488877</v>
+        <v>0.04033683831030579</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1481411135.354666</v>
+        <v>1521924342.703531</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1922542786376787</v>
+        <v>0.125138547800208</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03979075452670405</v>
+        <v>0.04145910096443892</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2490151177.749704</v>
+        <v>2620096138.035774</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09825735924470456</v>
+        <v>0.0667581770487725</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04037157455215989</v>
+        <v>0.04005379278200875</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4412015189.940609</v>
+        <v>3999501196.091757</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1381186391015775</v>
+        <v>0.09376569629330216</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03429338488041522</v>
+        <v>0.0515536265176785</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>188</v>
+      </c>
+      <c r="J93" t="n">
+        <v>396</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2452100751.803776</v>
+        <v>2463846022.934146</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1177119518435635</v>
+        <v>0.1633319197890363</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0280153338350287</v>
+        <v>0.03478573588528488</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3193956563.035599</v>
+        <v>2724546535.535635</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09954054848850466</v>
+        <v>0.1243122030528793</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05168487690062325</v>
+        <v>0.05272306672884732</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2182362044.261438</v>
+        <v>2358740044.635206</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397446626640553</v>
+        <v>0.09972761333529066</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03387271194957465</v>
+        <v>0.03270196585117813</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4972709546.030104</v>
+        <v>4134925725.650529</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1549210713845917</v>
+        <v>0.1394002246009665</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02373711124223191</v>
+        <v>0.0181559638975084</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>207</v>
+      </c>
+      <c r="J97" t="n">
+        <v>395</v>
+      </c>
+      <c r="K97" t="n">
+        <v>47.06503480754864</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3762418621.053795</v>
+        <v>2848612419.632258</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08583756701612374</v>
+        <v>0.1177006523158365</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02771035358479176</v>
+        <v>0.03270055607670997</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>391</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2374903856.60743</v>
+        <v>2752622371.622588</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1172608765463818</v>
+        <v>0.09051274958527424</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02354444665636777</v>
+        <v>0.03555013860111802</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4284115365.887581</v>
+        <v>3876764102.654993</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1344786358502423</v>
+        <v>0.1700849277523017</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02163715905840021</v>
+        <v>0.01753314229049749</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>184</v>
+      </c>
+      <c r="J100" t="n">
+        <v>395</v>
+      </c>
+      <c r="K100" t="n">
+        <v>43.99018319549038</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2541768626.160534</v>
+        <v>2824556336.756129</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2208374198196065</v>
+        <v>0.1344600155121529</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05160160694853147</v>
+        <v>0.0398496960698389</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
